--- a/Code/Results/Cases/Case_1_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2668870981002556</v>
+        <v>0.1423503261597858</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1680624938365156</v>
+        <v>0.234267617884484</v>
       </c>
       <c r="E2">
-        <v>0.0987951148166033</v>
+        <v>0.1793056353713887</v>
       </c>
       <c r="F2">
-        <v>0.5376960300089593</v>
+        <v>1.123359372945323</v>
       </c>
       <c r="G2">
-        <v>0.2840731736056412</v>
+        <v>0.5551713029926262</v>
       </c>
       <c r="H2">
-        <v>0.2633741515239976</v>
+        <v>0.6982842392986512</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08461186557790512</v>
+        <v>0.185453310251404</v>
       </c>
       <c r="K2">
-        <v>1.958991718656165</v>
+        <v>0.6090961603234462</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5073581871663535</v>
+        <v>0.2392297715950988</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.102178402829566</v>
+        <v>2.480822137930886</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2334876432421851</v>
+        <v>0.1329786013034067</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1526532107013168</v>
+        <v>0.2311197359476722</v>
       </c>
       <c r="E3">
-        <v>0.0930475186522095</v>
+        <v>0.1789700496125164</v>
       </c>
       <c r="F3">
-        <v>0.5243603655709492</v>
+        <v>1.129610054076352</v>
       </c>
       <c r="G3">
-        <v>0.2784307526113921</v>
+        <v>0.5597072547692648</v>
       </c>
       <c r="H3">
-        <v>0.2668409096736823</v>
+        <v>0.7043583452538513</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08285129702639082</v>
+        <v>0.1865001412834566</v>
       </c>
       <c r="K3">
-        <v>1.722725845813443</v>
+        <v>0.5316092208624923</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.441387637540295</v>
+        <v>0.2193315339418049</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.097108162578621</v>
+        <v>2.502893528269482</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2131268223395892</v>
+        <v>0.1272939203481798</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1433139351949535</v>
+        <v>0.2292743115819462</v>
       </c>
       <c r="E4">
-        <v>0.08964912275371262</v>
+        <v>0.1788473459038009</v>
       </c>
       <c r="F4">
-        <v>0.5173298262544535</v>
+        <v>1.134098854262731</v>
       </c>
       <c r="G4">
-        <v>0.2758039165376687</v>
+        <v>0.5629032805972258</v>
       </c>
       <c r="H4">
-        <v>0.269496220293405</v>
+        <v>0.7084115039277634</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08193706447989868</v>
+        <v>0.1872410927430508</v>
       </c>
       <c r="K4">
-        <v>1.577509077712875</v>
+        <v>0.4838346948781691</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4009260570840638</v>
+        <v>0.207128646995109</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.096864202462157</v>
+        <v>2.517985059048812</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2048630614279574</v>
+        <v>0.124995031013043</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1395370279901442</v>
+        <v>0.2285443640525813</v>
       </c>
       <c r="E5">
-        <v>0.08829564479864871</v>
+        <v>0.17881833937086</v>
       </c>
       <c r="F5">
-        <v>0.5147436699761272</v>
+        <v>1.136091789504363</v>
       </c>
       <c r="G5">
-        <v>0.274934202557013</v>
+        <v>0.5643089328828879</v>
       </c>
       <c r="H5">
-        <v>0.2707063842582613</v>
+        <v>0.7101446230665331</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08160477610949712</v>
+        <v>0.1875677383262193</v>
       </c>
       <c r="K5">
-        <v>1.518281727715561</v>
+        <v>0.4643179745582415</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3844441666327043</v>
+        <v>0.2021599195801116</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.097456202880508</v>
+        <v>2.524522029385423</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.203492792850696</v>
+        <v>0.1246143738932943</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1389115720109828</v>
+        <v>0.2284244933158561</v>
       </c>
       <c r="E6">
-        <v>0.08807275565369466</v>
+        <v>0.178814792091373</v>
       </c>
       <c r="F6">
-        <v>0.5143307343067178</v>
+        <v>1.136432604177813</v>
       </c>
       <c r="G6">
-        <v>0.2748016306844931</v>
+        <v>0.5645485736162641</v>
       </c>
       <c r="H6">
-        <v>0.2709149448731054</v>
+        <v>0.7104373252839409</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08155198468385905</v>
+        <v>0.1876234698130652</v>
       </c>
       <c r="K6">
-        <v>1.508443668978146</v>
+        <v>0.4610743668931434</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3817076242469</v>
+        <v>0.2013351209623693</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.097595409775295</v>
+        <v>2.525630862252626</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2130152433844472</v>
+        <v>0.127262844984088</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.143262883679796</v>
+        <v>0.2292643777238226</v>
       </c>
       <c r="E7">
-        <v>0.08963074403510518</v>
+        <v>0.1788468696482717</v>
       </c>
       <c r="F7">
-        <v>0.5172938352046685</v>
+        <v>1.134125068752695</v>
       </c>
       <c r="G7">
-        <v>0.2757913872201243</v>
+        <v>0.5629218197928623</v>
       </c>
       <c r="H7">
-        <v>0.2695120278980667</v>
+        <v>0.7084345476377507</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0819324222239608</v>
+        <v>0.1872453979686064</v>
       </c>
       <c r="K7">
-        <v>1.576710537284725</v>
+        <v>0.4835716789375226</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4007037560866848</v>
+        <v>0.207061620145609</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.096869425635177</v>
+        <v>2.518071651901934</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2553384277159978</v>
+        <v>0.139104605869548</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1627229339778182</v>
+        <v>0.2331641514853828</v>
       </c>
       <c r="E8">
-        <v>0.09678532814440999</v>
+        <v>0.1791726488709422</v>
       </c>
       <c r="F8">
-        <v>0.5328500889215846</v>
+        <v>1.125379550974309</v>
       </c>
       <c r="G8">
-        <v>0.2819477285431233</v>
+        <v>0.556649957561838</v>
       </c>
       <c r="H8">
-        <v>0.264457498708957</v>
+        <v>0.700311447447092</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08396918434322131</v>
+        <v>0.1857938837283051</v>
       </c>
       <c r="K8">
-        <v>1.877549921872429</v>
+        <v>0.5824204031498539</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4845993592707103</v>
+        <v>0.2323660085554948</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.099816172816119</v>
+        <v>2.488112748237654</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3396628482732353</v>
+        <v>0.1628725636555117</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2019389599358874</v>
+        <v>0.2415010115346661</v>
       </c>
       <c r="E9">
-        <v>0.1119217661936105</v>
+        <v>0.1804713915996778</v>
       </c>
       <c r="F9">
-        <v>0.5731221094594545</v>
+        <v>1.11339245824847</v>
       </c>
       <c r="G9">
-        <v>0.3011350048453636</v>
+        <v>0.5476156562023817</v>
       </c>
       <c r="H9">
-        <v>0.2589302752315703</v>
+        <v>0.6869480570104614</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08936546714087967</v>
+        <v>0.1837262308379479</v>
       </c>
       <c r="K9">
-        <v>2.46697511776955</v>
+        <v>0.7746459783755313</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6497054191414549</v>
+        <v>0.282091728160772</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.129784594872532</v>
+        <v>2.441584801523604</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4026734837113963</v>
+        <v>0.1806618691844619</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.231523115699332</v>
+        <v>0.2480419082616834</v>
       </c>
       <c r="E10">
-        <v>0.1238197766949263</v>
+        <v>0.1818262799404735</v>
       </c>
       <c r="F10">
-        <v>0.6095163396998799</v>
+        <v>1.107732175530067</v>
       </c>
       <c r="G10">
-        <v>0.3202556916085371</v>
+        <v>0.5429747890700156</v>
       </c>
       <c r="H10">
-        <v>0.2578433660495847</v>
+        <v>0.6786917608833818</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09430079879121678</v>
+        <v>0.1826815563245248</v>
       </c>
       <c r="K10">
-        <v>2.900734485151787</v>
+        <v>0.9148329650722644</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.771723633254723</v>
+        <v>0.3186749555087118</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.168635599456309</v>
+        <v>2.414859744543492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4316264437191251</v>
+        <v>0.1888245138290188</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2451798830865215</v>
+        <v>0.2511069222266684</v>
       </c>
       <c r="E11">
-        <v>0.129425469137022</v>
+        <v>0.1825293472030793</v>
       </c>
       <c r="F11">
-        <v>0.6277518153947526</v>
+        <v>1.10584033831978</v>
       </c>
       <c r="G11">
-        <v>0.3302068819611463</v>
+        <v>0.5412984688520481</v>
       </c>
       <c r="H11">
-        <v>0.2580656770966669</v>
+        <v>0.6752743678819684</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09678405531985135</v>
+        <v>0.182309266818578</v>
       </c>
       <c r="K11">
-        <v>3.098465864706071</v>
+        <v>0.9783706907473686</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8274739066408543</v>
+        <v>0.3353257674520762</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.190457086789394</v>
+        <v>2.404323406680902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4426367554163022</v>
+        <v>0.1919254478107177</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2503825769691588</v>
+        <v>0.2522803438699981</v>
       </c>
       <c r="E12">
-        <v>0.1315781090132724</v>
+        <v>0.1828080177991502</v>
       </c>
       <c r="F12">
-        <v>0.6349164553457385</v>
+        <v>1.105222145185003</v>
       </c>
       <c r="G12">
-        <v>0.3341697343247603</v>
+        <v>0.5407263224634136</v>
       </c>
       <c r="H12">
-        <v>0.2582592705361435</v>
+        <v>0.6740289187424509</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09776106274516394</v>
+        <v>0.1821830857952449</v>
       </c>
       <c r="K12">
-        <v>3.173422411327351</v>
+        <v>1.002395914907311</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.848627558485056</v>
+        <v>0.3416319765200058</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.199360620402501</v>
+        <v>2.400566817593017</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4402633408888619</v>
+        <v>0.1912571679307149</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2492606543722218</v>
+        <v>0.252027060388528</v>
       </c>
       <c r="E13">
-        <v>0.1311131354678921</v>
+        <v>0.1827474486601126</v>
       </c>
       <c r="F13">
-        <v>0.6333615964389594</v>
+        <v>1.105350916760088</v>
       </c>
       <c r="G13">
-        <v>0.3333073717004282</v>
+        <v>0.5408467567522734</v>
       </c>
       <c r="H13">
-        <v>0.2582126052836031</v>
+        <v>0.6742949854433533</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09754897664001305</v>
+        <v>0.1822096031267506</v>
       </c>
       <c r="K13">
-        <v>3.15727527424022</v>
+        <v>0.9972232390592808</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8440697422742858</v>
+        <v>0.3402737871324177</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.197413884527208</v>
+        <v>2.401365487454143</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4325313086826128</v>
+        <v>0.1890794317851032</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2456072716894795</v>
+        <v>0.2512032050649537</v>
       </c>
       <c r="E14">
-        <v>0.1296019566602098</v>
+        <v>0.1825520246068635</v>
       </c>
       <c r="F14">
-        <v>0.6283359529470971</v>
+        <v>1.105787511139127</v>
       </c>
       <c r="G14">
-        <v>0.3305289235001823</v>
+        <v>0.5412501419996829</v>
       </c>
       <c r="H14">
-        <v>0.2580793736158284</v>
+        <v>0.675170929279858</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09686368541539281</v>
+        <v>0.1822985893087719</v>
       </c>
       <c r="K14">
-        <v>3.104630857885212</v>
+        <v>0.9803479729719413</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8292133407140625</v>
+        <v>0.3358445670112289</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.191176494379192</v>
+        <v>2.404009673199141</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4278014152214524</v>
+        <v>0.1877467918203735</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2433736084959293</v>
+        <v>0.2507002294184986</v>
       </c>
       <c r="E15">
-        <v>0.1286802725919394</v>
+        <v>0.1824339399656871</v>
       </c>
       <c r="F15">
-        <v>0.6252919107217778</v>
+        <v>1.106067726386243</v>
       </c>
       <c r="G15">
-        <v>0.3288528223491625</v>
+        <v>0.5415053879247722</v>
       </c>
       <c r="H15">
-        <v>0.2580122089671733</v>
+        <v>0.6757138042847259</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09644877196999602</v>
+        <v>0.1823550227480837</v>
       </c>
       <c r="K15">
-        <v>3.072395688844978</v>
+        <v>0.9700067660369029</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8201190887616576</v>
+        <v>0.3331316489456739</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.187440633818255</v>
+        <v>2.405659700653672</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4007875679172201</v>
+        <v>0.1801298186364733</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2306348313527593</v>
+        <v>0.2478433948002987</v>
       </c>
       <c r="E16">
-        <v>0.1234574962859085</v>
+        <v>0.1817820748132597</v>
       </c>
       <c r="F16">
-        <v>0.6083598964883947</v>
+        <v>1.107869554842445</v>
       </c>
       <c r="G16">
-        <v>0.3196317798272901</v>
+        <v>0.5430931000343548</v>
       </c>
       <c r="H16">
-        <v>0.2578437930687443</v>
+        <v>0.6789219037732579</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09414350658022386</v>
+        <v>0.1827079572353441</v>
       </c>
       <c r="K16">
-        <v>2.887822300070468</v>
+        <v>0.9106757891918278</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7680857272939363</v>
+        <v>0.3175869332068828</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.167296656317149</v>
+        <v>2.41558095464157</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3842928772238849</v>
+        <v>0.1754749063575218</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2228727076981301</v>
+        <v>0.2461136735614389</v>
       </c>
       <c r="E17">
-        <v>0.1203044358343206</v>
+        <v>0.1814043624610591</v>
       </c>
       <c r="F17">
-        <v>0.5984151010034111</v>
+        <v>1.109149852488457</v>
       </c>
       <c r="G17">
-        <v>0.3143058449061797</v>
+        <v>0.5441785608062588</v>
       </c>
       <c r="H17">
-        <v>0.2579284360162433</v>
+        <v>0.6809766341549945</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09279196168087367</v>
+        <v>0.182950832213578</v>
       </c>
       <c r="K17">
-        <v>2.774712276928796</v>
+        <v>0.8742171587700227</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7362322948328028</v>
+        <v>0.3080527709279721</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.156031612699934</v>
+        <v>2.422082643440092</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3748324703888812</v>
+        <v>0.1728041421246473</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2184266857753698</v>
+        <v>0.2451272167508165</v>
       </c>
       <c r="E18">
-        <v>0.11850893311993</v>
+        <v>0.1811952771417715</v>
       </c>
       <c r="F18">
-        <v>0.5928520783359943</v>
+        <v>1.109950539229516</v>
       </c>
       <c r="G18">
-        <v>0.3113595423263646</v>
+        <v>0.5448438111600069</v>
       </c>
       <c r="H18">
-        <v>0.2580441811368104</v>
+        <v>0.6821903174667199</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09203685175185683</v>
+        <v>0.183100216840522</v>
       </c>
       <c r="K18">
-        <v>2.709691834841806</v>
+        <v>0.8532251779980982</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7179335073225559</v>
+        <v>0.3025698346939834</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.149939903393658</v>
+        <v>2.425974810076525</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3716338157494903</v>
+        <v>0.1719010093194129</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2169244483176556</v>
+        <v>0.2447946710624649</v>
       </c>
       <c r="E19">
-        <v>0.1179040457155516</v>
+        <v>0.1811258878644253</v>
       </c>
       <c r="F19">
-        <v>0.5909949702395352</v>
+        <v>1.110232680975976</v>
       </c>
       <c r="G19">
-        <v>0.3103816530708698</v>
+        <v>0.5450760784884281</v>
       </c>
       <c r="H19">
-        <v>0.2580947016333326</v>
+        <v>0.6826067219251115</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09178493731199922</v>
+        <v>0.1831524602297776</v>
       </c>
       <c r="K19">
-        <v>2.687682857745159</v>
+        <v>0.846113930850521</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7117414994678981</v>
+        <v>0.3007135661314564</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.147942646794633</v>
+        <v>2.427318828493597</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3860459464100785</v>
+        <v>0.175969746040451</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2236970613213458</v>
+        <v>0.246296933319158</v>
       </c>
       <c r="E20">
-        <v>0.1206382011583145</v>
+        <v>0.1814437258180739</v>
       </c>
       <c r="F20">
-        <v>0.5994573716965164</v>
+        <v>1.109006908617076</v>
       </c>
       <c r="G20">
-        <v>0.3148605860874483</v>
+        <v>0.544058775567855</v>
       </c>
       <c r="H20">
-        <v>0.2579124404748683</v>
+        <v>0.6807546077146824</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09293351486184065</v>
+        <v>0.1829239749841207</v>
       </c>
       <c r="K20">
-        <v>2.786749010981225</v>
+        <v>0.8781005237553074</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7396207715827359</v>
+        <v>0.3090676123088301</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.15719036810826</v>
+        <v>2.421374736033371</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.434801092869435</v>
+        <v>0.1897188179324871</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2466794912862156</v>
+        <v>0.2514448456897895</v>
       </c>
       <c r="E21">
-        <v>0.1300449980235321</v>
+        <v>0.1826090882147255</v>
       </c>
       <c r="F21">
-        <v>0.6298049229006182</v>
+        <v>1.105656607691351</v>
       </c>
       <c r="G21">
-        <v>0.3313396218950402</v>
+        <v>0.5411299570715471</v>
       </c>
       <c r="H21">
-        <v>0.2581154850457636</v>
+        <v>0.6749123233604024</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09706395739144114</v>
+        <v>0.1822720503698534</v>
       </c>
       <c r="K21">
-        <v>3.120091455748138</v>
+        <v>0.9853056129479398</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8335758196962786</v>
+        <v>0.3371455146632911</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.192990829167428</v>
+        <v>2.403226678718198</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4669386469803953</v>
+        <v>0.1987623562361449</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2618828567630942</v>
+        <v>0.2548836726137438</v>
       </c>
       <c r="E22">
-        <v>0.1363681520589104</v>
+        <v>0.183443179532663</v>
       </c>
       <c r="F22">
-        <v>0.6511590468321558</v>
+        <v>1.104039394524804</v>
       </c>
       <c r="G22">
-        <v>0.3432509759684166</v>
+        <v>0.5395809676030723</v>
       </c>
       <c r="H22">
-        <v>0.2588891548940211</v>
+        <v>0.6713775730178355</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09997830590661749</v>
+        <v>0.1819322251639406</v>
       </c>
       <c r="K22">
-        <v>3.338426902469564</v>
+        <v>1.055164869906321</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.895230775448546</v>
+        <v>0.3555011663437355</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.220142527792547</v>
+        <v>2.392725773675011</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4497595377764156</v>
+        <v>0.1939304263941324</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2537508895216263</v>
+        <v>0.2530415364294498</v>
       </c>
       <c r="E23">
-        <v>0.1329765999156685</v>
+        <v>0.1829913912317274</v>
       </c>
       <c r="F23">
-        <v>0.6396166810348518</v>
+        <v>1.10485016299279</v>
       </c>
       <c r="G23">
-        <v>0.3367842359523792</v>
+        <v>0.5403742436381833</v>
       </c>
       <c r="H23">
-        <v>0.2584153784175669</v>
+        <v>0.6732382014347422</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09840236729427687</v>
+        <v>0.1821057066668175</v>
       </c>
       <c r="K23">
-        <v>3.221846258783444</v>
+        <v>1.017898956497163</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8622989775605205</v>
+        <v>0.3457040645729776</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.205292452937556</v>
+        <v>2.398205810720867</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3852533137697378</v>
+        <v>0.1757460121652912</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.223324319765922</v>
+        <v>0.2462140567090216</v>
       </c>
       <c r="E24">
-        <v>0.1204872523333158</v>
+        <v>0.1814259045154607</v>
       </c>
       <c r="F24">
-        <v>0.5989856816079069</v>
+        <v>1.109071332233341</v>
       </c>
       <c r="G24">
-        <v>0.3146094284554337</v>
+        <v>0.544112802133732</v>
       </c>
       <c r="H24">
-        <v>0.2579194635859068</v>
+        <v>0.6808548849686673</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09286945060036089</v>
+        <v>0.1829360867589358</v>
       </c>
       <c r="K24">
-        <v>2.781307180091034</v>
+        <v>0.8763449522310509</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7380887976302404</v>
+        <v>0.3086088075368494</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.156665299762935</v>
+        <v>2.421694300479572</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3166838673258781</v>
+        <v>0.1563848411108353</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1912041772985305</v>
+        <v>0.2391723266877932</v>
       </c>
       <c r="E25">
-        <v>0.1076982526170163</v>
+        <v>0.1800495649141745</v>
       </c>
       <c r="F25">
-        <v>0.5610968650851405</v>
+        <v>1.116082642526145</v>
       </c>
       <c r="G25">
-        <v>0.2951142092335388</v>
+        <v>0.5497094966107028</v>
       </c>
       <c r="H25">
-        <v>0.2599261353900886</v>
+        <v>0.6902887613301445</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08774395271780122</v>
+        <v>0.1842022469703224</v>
       </c>
       <c r="K25">
-        <v>2.307474323276637</v>
+        <v>0.722822712579557</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6049416187397014</v>
+        <v>0.2686298917504004</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.118879642687602</v>
+        <v>2.452862569534048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423503261597858</v>
+        <v>0.2668870981002556</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.234267617884484</v>
+        <v>0.1680624938365298</v>
       </c>
       <c r="E2">
-        <v>0.1793056353713887</v>
+        <v>0.09879511481659264</v>
       </c>
       <c r="F2">
-        <v>1.123359372945323</v>
+        <v>0.5376960300089593</v>
       </c>
       <c r="G2">
-        <v>0.5551713029926262</v>
+        <v>0.2840731736056554</v>
       </c>
       <c r="H2">
-        <v>0.6982842392986512</v>
+        <v>0.2633741515239976</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.185453310251404</v>
+        <v>0.08461186557791223</v>
       </c>
       <c r="K2">
-        <v>0.6090961603234462</v>
+        <v>1.958991718656335</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2392297715950988</v>
+        <v>0.5073581871663535</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.480822137930886</v>
+        <v>1.10217840282958</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329786013034067</v>
+        <v>0.2334876432421709</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2311197359476722</v>
+        <v>0.1526532107014731</v>
       </c>
       <c r="E3">
-        <v>0.1789700496125164</v>
+        <v>0.09304751865218464</v>
       </c>
       <c r="F3">
-        <v>1.129610054076352</v>
+        <v>0.5243603655709421</v>
       </c>
       <c r="G3">
-        <v>0.5597072547692648</v>
+        <v>0.2784307526113921</v>
       </c>
       <c r="H3">
-        <v>0.7043583452538513</v>
+        <v>0.2668409096735687</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1865001412834566</v>
+        <v>0.08285129702634819</v>
       </c>
       <c r="K3">
-        <v>0.5316092208624923</v>
+        <v>1.722725845813358</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2193315339418049</v>
+        <v>0.4413876375403021</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.502893528269482</v>
+        <v>1.097108162578621</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272939203481798</v>
+        <v>0.2131268223395892</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2292743115819462</v>
+        <v>0.143313935194854</v>
       </c>
       <c r="E4">
-        <v>0.1788473459038009</v>
+        <v>0.08964912275371617</v>
       </c>
       <c r="F4">
-        <v>1.134098854262731</v>
+        <v>0.5173298262544392</v>
       </c>
       <c r="G4">
-        <v>0.5629032805972258</v>
+        <v>0.2758039165376616</v>
       </c>
       <c r="H4">
-        <v>0.7084115039277634</v>
+        <v>0.269496220293405</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1872410927430508</v>
+        <v>0.08193706447991644</v>
       </c>
       <c r="K4">
-        <v>0.4838346948781691</v>
+        <v>1.577509077712904</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.207128646995109</v>
+        <v>0.4009260570840638</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.517985059048812</v>
+        <v>1.096864202462058</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.124995031013043</v>
+        <v>0.20486306142773</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2285443640525813</v>
+        <v>0.1395370279900305</v>
       </c>
       <c r="E5">
-        <v>0.17881833937086</v>
+        <v>0.08829564479871266</v>
       </c>
       <c r="F5">
-        <v>1.136091789504363</v>
+        <v>0.5147436699761201</v>
       </c>
       <c r="G5">
-        <v>0.5643089328828879</v>
+        <v>0.2749342025569916</v>
       </c>
       <c r="H5">
-        <v>0.7101446230665331</v>
+        <v>0.2707063842582471</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1875677383262193</v>
+        <v>0.08160477610945094</v>
       </c>
       <c r="K5">
-        <v>0.4643179745582415</v>
+        <v>1.518281727715731</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2021599195801116</v>
+        <v>0.3844441666327043</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.524522029385423</v>
+        <v>1.09745620288048</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1246143738932943</v>
+        <v>0.2034927928507813</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2284244933158561</v>
+        <v>0.1389115720111391</v>
       </c>
       <c r="E6">
-        <v>0.178814792091373</v>
+        <v>0.08807275565366623</v>
       </c>
       <c r="F6">
-        <v>1.136432604177813</v>
+        <v>0.5143307343067107</v>
       </c>
       <c r="G6">
-        <v>0.5645485736162641</v>
+        <v>0.274801630684486</v>
       </c>
       <c r="H6">
-        <v>0.7104373252839409</v>
+        <v>0.2709149448731054</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1876234698130652</v>
+        <v>0.08155198468380931</v>
       </c>
       <c r="K6">
-        <v>0.4610743668931434</v>
+        <v>1.508443668978231</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2013351209623693</v>
+        <v>0.3817076242468929</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.525630862252626</v>
+        <v>1.097595409775209</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.127262844984088</v>
+        <v>0.2130152433844614</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2292643777238226</v>
+        <v>0.1432628836799523</v>
       </c>
       <c r="E7">
-        <v>0.1788468696482717</v>
+        <v>0.08963074403509452</v>
       </c>
       <c r="F7">
-        <v>1.134125068752695</v>
+        <v>0.5172938352046899</v>
       </c>
       <c r="G7">
-        <v>0.5629218197928623</v>
+        <v>0.2757913872200533</v>
       </c>
       <c r="H7">
-        <v>0.7084345476377507</v>
+        <v>0.2695120278980667</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1872453979686064</v>
+        <v>0.08193242222388974</v>
       </c>
       <c r="K7">
-        <v>0.4835716789375226</v>
+        <v>1.576710537284612</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.207061620145609</v>
+        <v>0.4007037560866848</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.518071651901934</v>
+        <v>1.096869425635148</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.139104605869548</v>
+        <v>0.2553384277159978</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2331641514853828</v>
+        <v>0.1627229339777614</v>
       </c>
       <c r="E8">
-        <v>0.1791726488709422</v>
+        <v>0.09678532814438157</v>
       </c>
       <c r="F8">
-        <v>1.125379550974309</v>
+        <v>0.5328500889215775</v>
       </c>
       <c r="G8">
-        <v>0.556649957561838</v>
+        <v>0.2819477285430949</v>
       </c>
       <c r="H8">
-        <v>0.700311447447092</v>
+        <v>0.2644574987090564</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1857938837283051</v>
+        <v>0.08396918434308631</v>
       </c>
       <c r="K8">
-        <v>0.5824204031498539</v>
+        <v>1.877549921872514</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2323660085554948</v>
+        <v>0.4845993592707245</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.488112748237654</v>
+        <v>1.099816172816091</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1628725636555117</v>
+        <v>0.3396628482732353</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2415010115346661</v>
+        <v>0.2019389599360153</v>
       </c>
       <c r="E9">
-        <v>0.1804713915996778</v>
+        <v>0.111921766193614</v>
       </c>
       <c r="F9">
-        <v>1.11339245824847</v>
+        <v>0.5731221094594261</v>
       </c>
       <c r="G9">
-        <v>0.5476156562023817</v>
+        <v>0.3011350048452428</v>
       </c>
       <c r="H9">
-        <v>0.6869480570104614</v>
+        <v>0.2589302752315561</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1837262308379479</v>
+        <v>0.08936546714085836</v>
       </c>
       <c r="K9">
-        <v>0.7746459783755313</v>
+        <v>2.46697511776955</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.282091728160772</v>
+        <v>0.6497054191414691</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.441584801523604</v>
+        <v>1.129784594872504</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1806618691844619</v>
+        <v>0.4026734837116805</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2480419082616834</v>
+        <v>0.2315231156990478</v>
       </c>
       <c r="E10">
-        <v>0.1818262799404735</v>
+        <v>0.1238197766949192</v>
       </c>
       <c r="F10">
-        <v>1.107732175530067</v>
+        <v>0.6095163396998728</v>
       </c>
       <c r="G10">
-        <v>0.5429747890700156</v>
+        <v>0.3202556916085513</v>
       </c>
       <c r="H10">
-        <v>0.6786917608833818</v>
+        <v>0.2578433660496984</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1826815563245248</v>
+        <v>0.09430079879114572</v>
       </c>
       <c r="K10">
-        <v>0.9148329650722644</v>
+        <v>2.900734485151816</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3186749555087118</v>
+        <v>0.7717236332547515</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.414859744543492</v>
+        <v>1.168635599456252</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1888245138290188</v>
+        <v>0.431626443719253</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2511069222266684</v>
+        <v>0.2451798830865215</v>
       </c>
       <c r="E11">
-        <v>0.1825293472030793</v>
+        <v>0.1294254691370575</v>
       </c>
       <c r="F11">
-        <v>1.10584033831978</v>
+        <v>0.6277518153947241</v>
       </c>
       <c r="G11">
-        <v>0.5412984688520481</v>
+        <v>0.3302068819611748</v>
       </c>
       <c r="H11">
-        <v>0.6752743678819684</v>
+        <v>0.2580656770966669</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.182309266818578</v>
+        <v>0.09678405531990819</v>
       </c>
       <c r="K11">
-        <v>0.9783706907473686</v>
+        <v>3.0984658647061</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3353257674520762</v>
+        <v>0.8274739066408614</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.404323406680902</v>
+        <v>1.190457086789394</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1919254478107177</v>
+        <v>0.4426367554163733</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2522803438699981</v>
+        <v>0.2503825769690451</v>
       </c>
       <c r="E12">
-        <v>0.1828080177991502</v>
+        <v>0.1315781090132724</v>
       </c>
       <c r="F12">
-        <v>1.105222145185003</v>
+        <v>0.6349164553457314</v>
       </c>
       <c r="G12">
-        <v>0.5407263224634136</v>
+        <v>0.3341697343247461</v>
       </c>
       <c r="H12">
-        <v>0.6740289187424509</v>
+        <v>0.2582592705361293</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1821830857952449</v>
+        <v>0.09776106274515683</v>
       </c>
       <c r="K12">
-        <v>1.002395914907311</v>
+        <v>3.173422411327238</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3416319765200058</v>
+        <v>0.8486275584850489</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.400566817593017</v>
+        <v>1.199360620402416</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1912571679307149</v>
+        <v>0.4402633408888192</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.252027060388528</v>
+        <v>0.2492606543721507</v>
       </c>
       <c r="E13">
-        <v>0.1827474486601126</v>
+        <v>0.1311131354678743</v>
       </c>
       <c r="F13">
-        <v>1.105350916760088</v>
+        <v>0.6333615964389594</v>
       </c>
       <c r="G13">
-        <v>0.5408467567522734</v>
+        <v>0.3333073717004282</v>
       </c>
       <c r="H13">
-        <v>0.6742949854433533</v>
+        <v>0.2582126052834752</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1822096031267506</v>
+        <v>0.09754897664004147</v>
       </c>
       <c r="K13">
-        <v>0.9972232390592808</v>
+        <v>3.157275274240277</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3402737871324177</v>
+        <v>0.8440697422742929</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.401365487454143</v>
+        <v>1.19741388452718</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1890794317851032</v>
+        <v>0.4325313086825702</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2512032050649537</v>
+        <v>0.2456072716893516</v>
       </c>
       <c r="E14">
-        <v>0.1825520246068635</v>
+        <v>0.1296019566601956</v>
       </c>
       <c r="F14">
-        <v>1.105787511139127</v>
+        <v>0.6283359529471042</v>
       </c>
       <c r="G14">
-        <v>0.5412501419996829</v>
+        <v>0.3305289235001396</v>
       </c>
       <c r="H14">
-        <v>0.675170929279858</v>
+        <v>0.2580793736158142</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1822985893087719</v>
+        <v>0.09686368541527202</v>
       </c>
       <c r="K14">
-        <v>0.9803479729719413</v>
+        <v>3.104630857885212</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3358445670112289</v>
+        <v>0.8292133407140625</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.404009673199141</v>
+        <v>1.191176494379249</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1877467918203735</v>
+        <v>0.4278014152214524</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2507002294184986</v>
+        <v>0.2433736084960145</v>
       </c>
       <c r="E15">
-        <v>0.1824339399656871</v>
+        <v>0.1286802725919358</v>
       </c>
       <c r="F15">
-        <v>1.106067726386243</v>
+        <v>0.6252919107217778</v>
       </c>
       <c r="G15">
-        <v>0.5415053879247722</v>
+        <v>0.3288528223492335</v>
       </c>
       <c r="H15">
-        <v>0.6757138042847259</v>
+        <v>0.2580122089671733</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1823550227480837</v>
+        <v>0.09644877196988944</v>
       </c>
       <c r="K15">
-        <v>0.9700067660369029</v>
+        <v>3.072395688845148</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3331316489456739</v>
+        <v>0.8201190887616576</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.405659700653672</v>
+        <v>1.187440633818255</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1801298186364733</v>
+        <v>0.400787567917078</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2478433948002987</v>
+        <v>0.2306348313526314</v>
       </c>
       <c r="E16">
-        <v>0.1817820748132597</v>
+        <v>0.1234574962858908</v>
       </c>
       <c r="F16">
-        <v>1.107869554842445</v>
+        <v>0.6083598964883947</v>
       </c>
       <c r="G16">
-        <v>0.5430931000343548</v>
+        <v>0.3196317798273469</v>
       </c>
       <c r="H16">
-        <v>0.6789219037732579</v>
+        <v>0.2578437930687443</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1827079572353441</v>
+        <v>0.09414350658011017</v>
       </c>
       <c r="K16">
-        <v>0.9106757891918278</v>
+        <v>2.887822300070496</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3175869332068828</v>
+        <v>0.7680857272939292</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.41558095464157</v>
+        <v>1.167296656317177</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1754749063575218</v>
+        <v>0.3842928772239986</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2461136735614389</v>
+        <v>0.2228727076981301</v>
       </c>
       <c r="E17">
-        <v>0.1814043624610591</v>
+        <v>0.1203044358343348</v>
       </c>
       <c r="F17">
-        <v>1.109149852488457</v>
+        <v>0.5984151010033969</v>
       </c>
       <c r="G17">
-        <v>0.5441785608062588</v>
+        <v>0.3143058449061371</v>
       </c>
       <c r="H17">
-        <v>0.6809766341549945</v>
+        <v>0.2579284360163641</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.182950832213578</v>
+        <v>0.09279196168089499</v>
       </c>
       <c r="K17">
-        <v>0.8742171587700227</v>
+        <v>2.774712276928767</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3080527709279721</v>
+        <v>0.7362322948327886</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.422082643440092</v>
+        <v>1.15603161269992</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1728041421246473</v>
+        <v>0.3748324703889807</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2451272167508165</v>
+        <v>0.2184266857752704</v>
       </c>
       <c r="E18">
-        <v>0.1811952771417715</v>
+        <v>0.1185089331199158</v>
       </c>
       <c r="F18">
-        <v>1.109950539229516</v>
+        <v>0.5928520783359943</v>
       </c>
       <c r="G18">
-        <v>0.5448438111600069</v>
+        <v>0.3113595423264144</v>
       </c>
       <c r="H18">
-        <v>0.6821903174667199</v>
+        <v>0.2580441811368104</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.183100216840522</v>
+        <v>0.0920368517518213</v>
       </c>
       <c r="K18">
-        <v>0.8532251779980982</v>
+        <v>2.709691834841919</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3025698346939834</v>
+        <v>0.7179335073225417</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.425974810076525</v>
+        <v>1.149939903393658</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1719010093194129</v>
+        <v>0.3716338157496324</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2447946710624649</v>
+        <v>0.216924448318025</v>
       </c>
       <c r="E19">
-        <v>0.1811258878644253</v>
+        <v>0.1179040457155658</v>
       </c>
       <c r="F19">
-        <v>1.110232680975976</v>
+        <v>0.590994970239521</v>
       </c>
       <c r="G19">
-        <v>0.5450760784884281</v>
+        <v>0.3103816530708841</v>
       </c>
       <c r="H19">
-        <v>0.6826067219251115</v>
+        <v>0.2580947016333326</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1831524602297776</v>
+        <v>0.091784937311985</v>
       </c>
       <c r="K19">
-        <v>0.846113930850521</v>
+        <v>2.687682857745074</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3007135661314564</v>
+        <v>0.7117414994679336</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.427318828493597</v>
+        <v>1.147942646794647</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.175969746040451</v>
+        <v>0.3860459464100501</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.246296933319158</v>
+        <v>0.2236970613213742</v>
       </c>
       <c r="E20">
-        <v>0.1814437258180739</v>
+        <v>0.1206382011583287</v>
       </c>
       <c r="F20">
-        <v>1.109006908617076</v>
+        <v>0.5994573716965235</v>
       </c>
       <c r="G20">
-        <v>0.544058775567855</v>
+        <v>0.3148605860873914</v>
       </c>
       <c r="H20">
-        <v>0.6807546077146824</v>
+        <v>0.257912440474982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1829239749841207</v>
+        <v>0.09293351486186907</v>
       </c>
       <c r="K20">
-        <v>0.8781005237553074</v>
+        <v>2.786749010981225</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3090676123088301</v>
+        <v>0.7396207715827501</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.421374736033371</v>
+        <v>1.15719036810826</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1897188179324871</v>
+        <v>0.4348010928693355</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2514448456897895</v>
+        <v>0.246679491286244</v>
       </c>
       <c r="E21">
-        <v>0.1826090882147255</v>
+        <v>0.130044998023525</v>
       </c>
       <c r="F21">
-        <v>1.105656607691351</v>
+        <v>0.6298049229006324</v>
       </c>
       <c r="G21">
-        <v>0.5411299570715471</v>
+        <v>0.3313396218950402</v>
       </c>
       <c r="H21">
-        <v>0.6749123233604024</v>
+        <v>0.2581154850457636</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1822720503698534</v>
+        <v>0.09706395739133455</v>
       </c>
       <c r="K21">
-        <v>0.9853056129479398</v>
+        <v>3.120091455748195</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3371455146632911</v>
+        <v>0.8335758196962644</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.403226678718198</v>
+        <v>1.1929908291674</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1987623562361449</v>
+        <v>0.4669386469803953</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2548836726137438</v>
+        <v>0.2618828567631226</v>
       </c>
       <c r="E22">
-        <v>0.183443179532663</v>
+        <v>0.1363681520589139</v>
       </c>
       <c r="F22">
-        <v>1.104039394524804</v>
+        <v>0.6511590468321558</v>
       </c>
       <c r="G22">
-        <v>0.5395809676030723</v>
+        <v>0.3432509759684734</v>
       </c>
       <c r="H22">
-        <v>0.6713775730178355</v>
+        <v>0.2588891548941348</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1819322251639406</v>
+        <v>0.09997830590657486</v>
       </c>
       <c r="K22">
-        <v>1.055164869906321</v>
+        <v>3.338426902469507</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3555011663437355</v>
+        <v>0.895230775448546</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.392725773675011</v>
+        <v>1.220142527792518</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1939304263941324</v>
+        <v>0.4497595377764299</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2530415364294498</v>
+        <v>0.2537508895216263</v>
       </c>
       <c r="E23">
-        <v>0.1829913912317274</v>
+        <v>0.1329765999156685</v>
       </c>
       <c r="F23">
-        <v>1.10485016299279</v>
+        <v>0.6396166810348518</v>
       </c>
       <c r="G23">
-        <v>0.5403742436381833</v>
+        <v>0.3367842359523792</v>
       </c>
       <c r="H23">
-        <v>0.6732382014347422</v>
+        <v>0.2584153784176806</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1821057066668175</v>
+        <v>0.09840236729421292</v>
       </c>
       <c r="K23">
-        <v>1.017898956497163</v>
+        <v>3.221846258783557</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3457040645729776</v>
+        <v>0.8622989775605134</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.398205810720867</v>
+        <v>1.205292452937556</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1757460121652912</v>
+        <v>0.385253313769752</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2462140567090216</v>
+        <v>0.2233243197658794</v>
       </c>
       <c r="E24">
-        <v>0.1814259045154607</v>
+        <v>0.1204872523333158</v>
       </c>
       <c r="F24">
-        <v>1.109071332233341</v>
+        <v>0.5989856816079069</v>
       </c>
       <c r="G24">
-        <v>0.544112802133732</v>
+        <v>0.3146094284554266</v>
       </c>
       <c r="H24">
-        <v>0.6808548849686673</v>
+        <v>0.2579194635860205</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1829360867589358</v>
+        <v>0.09286945060030405</v>
       </c>
       <c r="K24">
-        <v>0.8763449522310509</v>
+        <v>2.781307180091119</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3086088075368494</v>
+        <v>0.7380887976302191</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.421694300479572</v>
+        <v>1.156665299762921</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1563848411108353</v>
+        <v>0.3166838673258781</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2391723266877932</v>
+        <v>0.1912041772985305</v>
       </c>
       <c r="E25">
-        <v>0.1800495649141745</v>
+        <v>0.1076982526170056</v>
       </c>
       <c r="F25">
-        <v>1.116082642526145</v>
+        <v>0.5610968650851405</v>
       </c>
       <c r="G25">
-        <v>0.5497094966107028</v>
+        <v>0.2951142092334322</v>
       </c>
       <c r="H25">
-        <v>0.6902887613301445</v>
+        <v>0.2599261353899678</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1842022469703224</v>
+        <v>0.08774395271782964</v>
       </c>
       <c r="K25">
-        <v>0.722822712579557</v>
+        <v>2.307474323276608</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2686298917504004</v>
+        <v>0.6049416187397085</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.452862569534048</v>
+        <v>1.118879642687659</v>
       </c>
     </row>
   </sheetData>
